--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3800.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3800.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.919229510243814</v>
+        <v>2.209705352783203</v>
       </c>
       <c r="B1">
-        <v>2.093243631524756</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2.394451462046436</v>
+        <v>3.929324626922607</v>
       </c>
       <c r="D1">
-        <v>3.839553317062644</v>
+        <v>2.01487922668457</v>
       </c>
       <c r="E1">
-        <v>1.894959654315537</v>
+        <v>1.444768190383911</v>
       </c>
     </row>
   </sheetData>
